--- a/src/test/resources/testdata/testDataSheet.xlsx
+++ b/src/test/resources/testdata/testDataSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="2" r:id="rId1"/>
@@ -17,11 +17,12 @@
     <sheet name="AppName" sheetId="17" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>TestName</t>
   </si>
@@ -107,9 +108,6 @@
     <t>App/Bundle names</t>
   </si>
   <si>
-    <t>BES trial</t>
-  </si>
-  <si>
     <t>Email ID</t>
   </si>
   <si>
@@ -131,24 +129,15 @@
     <t>a3x16000000Tj3r</t>
   </si>
   <si>
-    <t>Normal Bundle</t>
-  </si>
-  <si>
     <t>Admiral For Good</t>
   </si>
   <si>
-    <t>ISV APP</t>
-  </si>
-  <si>
     <t>https://ssapps-stg15.good.com/#/apps</t>
   </si>
   <si>
     <t>Stagusr20@mailinator.com</t>
   </si>
   <si>
-    <t>PCE  Login</t>
-  </si>
-  <si>
     <t>addinus</t>
   </si>
   <si>
@@ -158,21 +147,12 @@
     <t>!</t>
   </si>
   <si>
-    <t>App name Special Char</t>
-  </si>
-  <si>
-    <t>Bundle Requires Approval</t>
-  </si>
-  <si>
     <t>TRIAL-MGMT-RA</t>
   </si>
   <si>
     <t>@</t>
   </si>
   <si>
-    <t>Customer name Special Char</t>
-  </si>
-  <si>
     <t>TRIAL-ENT-RA</t>
   </si>
   <si>
@@ -183,6 +163,64 @@
   </si>
   <si>
     <t>apanigrahi@blackberry.com</t>
+  </si>
+  <si>
+    <t>StartTrialForNormalBundleTest</t>
+  </si>
+  <si>
+    <t>StartISVTrialInGecosTest</t>
+  </si>
+  <si>
+    <t>StartISVTrialFromPCETest</t>
+  </si>
+  <si>
+    <t>Normal Bundle Start trial</t>
+  </si>
+  <si>
+    <t>BES Start trial</t>
+  </si>
+  <si>
+    <t>ISV APP Start trial</t>
+  </si>
+  <si>
+    <t>ISV APP Start trial from PCE</t>
+  </si>
+  <si>
+    <t>App name Special Char Search</t>
+  </si>
+  <si>
+    <t>DeleteTrialTest</t>
+  </si>
+  <si>
+    <t>Delete trial in Gecos with Super admin access</t>
+  </si>
+  <si>
+    <t>Adding User as CC</t>
+  </si>
+  <si>
+    <t>AddUserInCCNotificationTest
+RemoveUserInCCNotificationTest</t>
+  </si>
+  <si>
+    <t>PurchaseTrialTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StartBESTrialTest
+ExtendTrialTest
+StopTrialTest
+</t>
+  </si>
+  <si>
+    <t>a3x1600000053vT1</t>
+  </si>
+  <si>
+    <t>Trial BES12 no good apps</t>
+  </si>
+  <si>
+    <t>Search Customer name with Special Char</t>
+  </si>
+  <si>
+    <t>Start trial for Bundle which Requires Approval</t>
   </si>
 </sst>
 </file>
@@ -214,8 +252,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -236,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -270,33 +307,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -605,35 +684,33 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.28515625" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
@@ -645,38 +722,42 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -696,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,19 +792,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -734,41 +815,43 @@
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -781,249 +864,272 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="18" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="9" t="s">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="E3" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="16">
+        <v>113887231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="D11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="11">
-        <v>113887231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="8"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1"/>
-    <hyperlink ref="D9" r:id="rId2"/>
-    <hyperlink ref="D10" r:id="rId3"/>
-    <hyperlink ref="D11" r:id="rId4"/>
+    <hyperlink ref="D12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/testDataSheet.xlsx
+++ b/src/test/resources/testdata/testDataSheet.xlsx
@@ -17,7 +17,6 @@
     <sheet name="AppName" sheetId="17" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -684,7 +683,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +864,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
